--- a/Code/Results/Cases/Case_3_168/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_168/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.9591709644839</v>
+        <v>9.276739466669731</v>
       </c>
       <c r="C2">
-        <v>7.040611442357784</v>
+        <v>5.512395282490526</v>
       </c>
       <c r="D2">
-        <v>5.314657270227004</v>
+        <v>4.922777254636135</v>
       </c>
       <c r="F2">
-        <v>15.93611977504164</v>
+        <v>22.84158384033515</v>
       </c>
       <c r="G2">
-        <v>2.087101657661669</v>
+        <v>3.626838973828984</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,13 +442,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.47139203836089</v>
+        <v>8.50592536256166</v>
       </c>
       <c r="N2">
-        <v>11.85690358980496</v>
+        <v>17.80671404251862</v>
       </c>
       <c r="O2">
-        <v>12.95510574406054</v>
+        <v>20.5876497060342</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,19 +456,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.12308694349512</v>
+        <v>8.976158137798656</v>
       </c>
       <c r="C3">
-        <v>6.743910952547336</v>
+        <v>5.385868133065467</v>
       </c>
       <c r="D3">
-        <v>5.097201735635767</v>
+        <v>4.838897443180038</v>
       </c>
       <c r="F3">
-        <v>15.77353883883887</v>
+        <v>22.9019181309469</v>
       </c>
       <c r="G3">
-        <v>2.090976660105978</v>
+        <v>3.628319191498725</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,13 +477,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.8305975629783</v>
+        <v>8.296656281057613</v>
       </c>
       <c r="N3">
-        <v>12.01469451830775</v>
+        <v>17.85861684992159</v>
       </c>
       <c r="O3">
-        <v>13.04962778616025</v>
+        <v>20.67349291331158</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,19 +491,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.57950556655622</v>
+        <v>8.78771250488265</v>
       </c>
       <c r="C4">
-        <v>6.554586000018849</v>
+        <v>5.306062920337981</v>
       </c>
       <c r="D4">
-        <v>4.958234982781677</v>
+        <v>4.785988330907564</v>
       </c>
       <c r="F4">
-        <v>15.68910249899086</v>
+        <v>22.94512450720505</v>
       </c>
       <c r="G4">
-        <v>2.093433529872948</v>
+        <v>3.629276656475332</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.41663673826018</v>
+        <v>8.166496745428491</v>
       </c>
       <c r="N4">
-        <v>12.11460387389338</v>
+        <v>17.8921649449647</v>
       </c>
       <c r="O4">
-        <v>13.11933069975168</v>
+        <v>20.73057661869371</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.35037685296053</v>
+        <v>8.71006266017603</v>
       </c>
       <c r="C5">
-        <v>6.475706543729415</v>
+        <v>5.273039829396891</v>
       </c>
       <c r="D5">
-        <v>4.90028177888952</v>
+        <v>4.76408841237421</v>
       </c>
       <c r="F5">
-        <v>15.65848787191962</v>
+        <v>22.96427654796425</v>
       </c>
       <c r="G5">
-        <v>2.094454578789824</v>
+        <v>3.62967908976583</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.24284864108108</v>
+        <v>8.113112369215932</v>
       </c>
       <c r="N5">
-        <v>12.1560832055059</v>
+        <v>17.90625941430286</v>
       </c>
       <c r="O5">
-        <v>13.15054308323568</v>
+        <v>20.75493746427076</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,19 +561,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.31186995252603</v>
+        <v>8.697120939835996</v>
       </c>
       <c r="C6">
-        <v>6.462506551572275</v>
+        <v>5.267526988988356</v>
       </c>
       <c r="D6">
-        <v>4.890580283918652</v>
+        <v>4.76043191159664</v>
       </c>
       <c r="F6">
-        <v>15.65363100882638</v>
+        <v>22.96754992138374</v>
       </c>
       <c r="G6">
-        <v>2.094625332088558</v>
+        <v>3.62974665496266</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.21368564145588</v>
+        <v>8.104229490659726</v>
       </c>
       <c r="N6">
-        <v>12.16301719327707</v>
+        <v>17.90862538920466</v>
       </c>
       <c r="O6">
-        <v>13.1558918650247</v>
+        <v>20.75904888292994</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,19 +596,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.57644630517949</v>
+        <v>8.786668593964984</v>
       </c>
       <c r="C7">
-        <v>6.553529100703083</v>
+        <v>5.305619549577028</v>
       </c>
       <c r="D7">
-        <v>4.957458695980015</v>
+        <v>4.785694333840927</v>
       </c>
       <c r="F7">
-        <v>15.68867436782909</v>
+        <v>22.94537654803796</v>
       </c>
       <c r="G7">
-        <v>2.093447219262766</v>
+        <v>3.629282034148324</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -617,13 +617,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.4143135092552</v>
+        <v>8.165778072038512</v>
       </c>
       <c r="N7">
-        <v>12.11516017281978</v>
+        <v>17.89235331244148</v>
       </c>
       <c r="O7">
-        <v>13.11974043506127</v>
+        <v>20.73090071069399</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,19 +631,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.67715093205569</v>
+        <v>9.173975338241547</v>
       </c>
       <c r="C8">
-        <v>6.939831717560266</v>
+        <v>5.469225860716903</v>
       </c>
       <c r="D8">
-        <v>5.240835413736839</v>
+        <v>4.894156036768734</v>
       </c>
       <c r="F8">
-        <v>15.87682629909694</v>
+        <v>22.86110606162387</v>
       </c>
       <c r="G8">
-        <v>2.088421861430623</v>
+        <v>3.627339286746626</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -652,13 +652,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.25473496159443</v>
+        <v>8.434159906572702</v>
       </c>
       <c r="N8">
-        <v>11.91068485830415</v>
+        <v>17.82426214534002</v>
       </c>
       <c r="O8">
-        <v>12.98519896136507</v>
+        <v>20.61633937532591</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,19 +666,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.59679650000926</v>
+        <v>9.897826890339617</v>
       </c>
       <c r="C9">
-        <v>7.638086337364186</v>
+        <v>5.772012871345652</v>
       </c>
       <c r="D9">
-        <v>5.751580706128567</v>
+        <v>5.095077272935579</v>
       </c>
       <c r="F9">
-        <v>16.37061253549578</v>
+        <v>22.74490257261192</v>
       </c>
       <c r="G9">
-        <v>2.079166739918286</v>
+        <v>3.623913566350925</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -687,13 +687,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.73815071364315</v>
+        <v>8.944082530455237</v>
       </c>
       <c r="N9">
-        <v>11.53350456812241</v>
+        <v>17.70401586947312</v>
       </c>
       <c r="O9">
-        <v>12.81972489495141</v>
+        <v>20.42647087089439</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,19 +701,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.86321937371349</v>
+        <v>10.40215545890946</v>
       </c>
       <c r="C10">
-        <v>8.112180595969388</v>
+        <v>5.981934960164851</v>
       </c>
       <c r="D10">
-        <v>6.097524627461841</v>
+        <v>5.234747377261789</v>
       </c>
       <c r="F10">
-        <v>16.81227274560279</v>
+        <v>22.6896328749126</v>
       </c>
       <c r="G10">
-        <v>2.072708906092193</v>
+        <v>3.621628459990907</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -722,13 +722,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.72602688911151</v>
+        <v>9.304830990261683</v>
       </c>
       <c r="N10">
-        <v>11.27062748666567</v>
+        <v>17.62370186199631</v>
       </c>
       <c r="O10">
-        <v>12.76626910379352</v>
+        <v>20.30827221892187</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,19 +736,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.40851770783719</v>
+        <v>10.62459616917833</v>
       </c>
       <c r="C11">
-        <v>8.318984674394613</v>
+        <v>6.074425196451371</v>
       </c>
       <c r="D11">
-        <v>6.248244654983623</v>
+        <v>5.296412021854102</v>
       </c>
       <c r="F11">
-        <v>17.03066170054381</v>
+        <v>22.67105986141523</v>
       </c>
       <c r="G11">
-        <v>2.069839840393983</v>
+        <v>3.620638738034809</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -757,13 +757,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.15316332948837</v>
+        <v>9.465191181101089</v>
       </c>
       <c r="N11">
-        <v>11.15408200671026</v>
+        <v>17.58889506459125</v>
       </c>
       <c r="O11">
-        <v>12.75854020853492</v>
+        <v>20.25914472662654</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,19 +771,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.61061560385859</v>
+        <v>10.70775170678241</v>
       </c>
       <c r="C12">
-        <v>8.39599488779495</v>
+        <v>6.108995338098506</v>
       </c>
       <c r="D12">
-        <v>6.304342817243916</v>
+        <v>5.319482029691986</v>
       </c>
       <c r="F12">
-        <v>17.1158845358142</v>
+        <v>22.66497331486777</v>
       </c>
       <c r="G12">
-        <v>2.068762799418947</v>
+        <v>3.62027107772369</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -792,13 +792,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.31170779034567</v>
+        <v>9.525321537435286</v>
       </c>
       <c r="N12">
-        <v>11.11038372204106</v>
+        <v>17.57596218517839</v>
       </c>
       <c r="O12">
-        <v>12.75814859861583</v>
+        <v>20.24121055875612</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,19 +806,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.56728508417716</v>
+        <v>10.68989170600194</v>
       </c>
       <c r="C13">
-        <v>8.37946764021534</v>
+        <v>6.101570555999145</v>
       </c>
       <c r="D13">
-        <v>6.292304766967097</v>
+        <v>5.314526171958689</v>
       </c>
       <c r="F13">
-        <v>17.09741795596455</v>
+        <v>22.66624203345842</v>
       </c>
       <c r="G13">
-        <v>2.06899434842036</v>
+        <v>3.62034994354544</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.27770482484356</v>
+        <v>9.512398673579812</v>
       </c>
       <c r="N13">
-        <v>11.11977560735181</v>
+        <v>17.57873650902146</v>
       </c>
       <c r="O13">
-        <v>12.75811780050027</v>
+        <v>20.24504320351015</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,19 +841,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.4252322929324</v>
+        <v>10.63145942324439</v>
       </c>
       <c r="C14">
-        <v>8.325346580746142</v>
+        <v>6.077278518539626</v>
       </c>
       <c r="D14">
-        <v>6.252879549466556</v>
+        <v>5.298315703435778</v>
       </c>
       <c r="F14">
-        <v>17.03762242663901</v>
+        <v>22.67054013592787</v>
       </c>
       <c r="G14">
-        <v>2.069751045665997</v>
+        <v>3.620608347773889</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.16627105965277</v>
+        <v>9.470150361393612</v>
       </c>
       <c r="N14">
-        <v>11.15047821373797</v>
+        <v>17.58782610936329</v>
       </c>
       <c r="O14">
-        <v>12.758456323634</v>
+        <v>20.25765584640749</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,19 +876,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.33764960395679</v>
+        <v>10.59552552890998</v>
       </c>
       <c r="C15">
-        <v>8.292025599262507</v>
+        <v>6.062339214428598</v>
       </c>
       <c r="D15">
-        <v>6.228602809112256</v>
+        <v>5.28834938195084</v>
       </c>
       <c r="F15">
-        <v>17.00132475989673</v>
+        <v>22.67329617884922</v>
       </c>
       <c r="G15">
-        <v>2.070215756283608</v>
+        <v>3.620767554853765</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.09759758821263</v>
+        <v>9.444193040423499</v>
       </c>
       <c r="N15">
-        <v>11.16934104627515</v>
+        <v>17.59342598485856</v>
       </c>
       <c r="O15">
-        <v>12.75899828029372</v>
+        <v>20.26546867869657</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,19 +911,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.8269659139512</v>
+        <v>10.38747143525045</v>
       </c>
       <c r="C16">
-        <v>8.098484619623539</v>
+        <v>5.975828137905811</v>
       </c>
       <c r="D16">
-        <v>6.087539095216453</v>
+        <v>5.230678747785558</v>
       </c>
       <c r="F16">
-        <v>16.79835329331239</v>
+        <v>22.6909790401051</v>
       </c>
       <c r="G16">
-        <v>2.072897748830008</v>
+        <v>3.621694139608154</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -932,13 +932,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.6976643239776</v>
+        <v>9.29427081072388</v>
       </c>
       <c r="N16">
-        <v>11.27830496410615</v>
+        <v>17.62601127589091</v>
       </c>
       <c r="O16">
-        <v>12.76712079917864</v>
+        <v>20.3115763794501</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,19 +946,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.50581241215005</v>
+        <v>10.25799359119706</v>
       </c>
       <c r="C17">
-        <v>7.977461817580902</v>
+        <v>5.921970751400464</v>
       </c>
       <c r="D17">
-        <v>5.999282143594465</v>
+        <v>5.194811549600097</v>
       </c>
       <c r="F17">
-        <v>16.67832339237152</v>
+        <v>22.70351107118528</v>
       </c>
       <c r="G17">
-        <v>2.074560325502312</v>
+        <v>3.62227529673211</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -967,13 +967,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.44661435964431</v>
+        <v>9.201297678992439</v>
       </c>
       <c r="N17">
-        <v>11.34592739510359</v>
+        <v>17.64644338412863</v>
       </c>
       <c r="O17">
-        <v>12.77645878068398</v>
+        <v>20.34105214599798</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,19 +981,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.31819177194383</v>
+        <v>10.18286815609409</v>
       </c>
       <c r="C18">
-        <v>7.907019628218544</v>
+        <v>5.890711810696005</v>
       </c>
       <c r="D18">
-        <v>5.947893916903634</v>
+        <v>5.174006149269069</v>
       </c>
       <c r="F18">
-        <v>16.61093025642692</v>
+        <v>22.71133742768065</v>
       </c>
       <c r="G18">
-        <v>2.07552308472804</v>
+        <v>3.622614250836883</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1002,13 +1002,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.30012215803205</v>
+        <v>9.14747243714527</v>
       </c>
       <c r="N18">
-        <v>11.38510811199897</v>
+        <v>17.65835813180871</v>
       </c>
       <c r="O18">
-        <v>12.78338210042848</v>
+        <v>20.35844261138046</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,19 +1016,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.2541672668571</v>
+        <v>10.15732218309982</v>
       </c>
       <c r="C19">
-        <v>7.883026967253942</v>
+        <v>5.880080402749843</v>
       </c>
       <c r="D19">
-        <v>5.930388039790705</v>
+        <v>5.166932022998429</v>
       </c>
       <c r="F19">
-        <v>16.58839412969519</v>
+        <v>22.71409341593807</v>
       </c>
       <c r="G19">
-        <v>2.075850186517574</v>
+        <v>3.622729821034682</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.25016281413182</v>
+        <v>9.129189877418629</v>
       </c>
       <c r="N19">
-        <v>11.39842323827033</v>
+        <v>17.66242023744176</v>
       </c>
       <c r="O19">
-        <v>12.78598828144089</v>
+        <v>20.36440568467864</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,19 +1051,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.54029981485805</v>
+        <v>10.2718448963473</v>
       </c>
       <c r="C20">
-        <v>7.990431339237386</v>
+        <v>5.927733270601532</v>
       </c>
       <c r="D20">
-        <v>6.008742103994472</v>
+        <v>5.198647929687934</v>
       </c>
       <c r="F20">
-        <v>16.69093043371673</v>
+        <v>22.70211301110319</v>
       </c>
       <c r="G20">
-        <v>2.074382673018519</v>
+        <v>3.622212946624385</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.47355591347774</v>
+        <v>9.211231424769396</v>
       </c>
       <c r="N20">
-        <v>11.33869928037614</v>
+        <v>17.6442515146046</v>
       </c>
       <c r="O20">
-        <v>12.77530298966966</v>
+        <v>20.3378691811394</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,19 +1086,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.46707562422605</v>
+        <v>10.64865220476612</v>
       </c>
       <c r="C21">
-        <v>8.341278772495111</v>
+        <v>6.084426162905912</v>
       </c>
       <c r="D21">
-        <v>6.264486324937685</v>
+        <v>5.303084829713344</v>
       </c>
       <c r="F21">
-        <v>17.05511729012602</v>
+        <v>22.66925197421645</v>
       </c>
       <c r="G21">
-        <v>2.069528533676561</v>
+        <v>3.620532255054286</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.1990887709764</v>
+        <v>9.482576273641019</v>
       </c>
       <c r="N21">
-        <v>11.14144832106587</v>
+        <v>17.58514955760938</v>
       </c>
       <c r="O21">
-        <v>12.75828689315189</v>
+        <v>20.25393302664897</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,19 +1121,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.04717902267675</v>
+        <v>10.88860597723619</v>
       </c>
       <c r="C22">
-        <v>8.562980171988812</v>
+        <v>6.184179455355665</v>
       </c>
       <c r="D22">
-        <v>6.425933117553784</v>
+        <v>5.369697183776168</v>
       </c>
       <c r="F22">
-        <v>17.30784340732414</v>
+        <v>22.65329371657098</v>
       </c>
       <c r="G22">
-        <v>2.066410702404233</v>
+        <v>3.619475346121021</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.65460109127462</v>
+        <v>9.656427540186286</v>
       </c>
       <c r="N22">
-        <v>11.01506839170775</v>
+        <v>17.54796641053065</v>
       </c>
       <c r="O22">
-        <v>12.76201213242034</v>
+        <v>20.20297822647332</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,19 +1156,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.73989705168708</v>
+        <v>10.76113798113192</v>
       </c>
       <c r="C23">
-        <v>8.445356683376438</v>
+        <v>6.131188898236926</v>
       </c>
       <c r="D23">
-        <v>6.340292746181873</v>
+        <v>5.334299002923815</v>
       </c>
       <c r="F23">
-        <v>17.17161153971117</v>
+        <v>22.66130550201726</v>
       </c>
       <c r="G23">
-        <v>2.068069906840568</v>
+        <v>3.620035650046147</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.41319270816958</v>
+        <v>9.563976297849857</v>
       </c>
       <c r="N23">
-        <v>11.0822882223914</v>
+        <v>17.56767996142618</v>
       </c>
       <c r="O23">
-        <v>12.75861598232013</v>
+        <v>20.22981608168759</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,19 +1191,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.52471736097667</v>
+        <v>10.26558485510212</v>
       </c>
       <c r="C24">
-        <v>7.984570509289929</v>
+        <v>5.925128954772214</v>
       </c>
       <c r="D24">
-        <v>6.00446727313724</v>
+        <v>5.196914077175235</v>
       </c>
       <c r="F24">
-        <v>16.6852257650607</v>
+        <v>22.70274313823254</v>
       </c>
       <c r="G24">
-        <v>2.074462968112136</v>
+        <v>3.622241120032189</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1212,13 +1212,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.46138236534438</v>
+        <v>9.206741538150821</v>
       </c>
       <c r="N24">
-        <v>11.34196616498552</v>
+        <v>17.64524193526449</v>
       </c>
       <c r="O24">
-        <v>12.77582069131198</v>
+        <v>20.33930681525108</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,19 +1226,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.10289264576462</v>
+        <v>9.706454375895301</v>
       </c>
       <c r="C25">
-        <v>7.455855272507912</v>
+        <v>5.692198645300256</v>
       </c>
       <c r="D25">
-        <v>5.618439806463856</v>
+        <v>5.0420651878804</v>
       </c>
       <c r="F25">
-        <v>16.22333063888493</v>
+        <v>22.77106471649386</v>
       </c>
       <c r="G25">
-        <v>2.081608678876544</v>
+        <v>3.624799446122124</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.354684115773</v>
+        <v>8.80830885621827</v>
       </c>
       <c r="N25">
-        <v>11.63302391797033</v>
+        <v>17.73513071227949</v>
       </c>
       <c r="O25">
-        <v>12.85312891370501</v>
+        <v>20.47410180718193</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_168/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_168/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.276739466669731</v>
+        <v>12.95917096448396</v>
       </c>
       <c r="C2">
-        <v>5.512395282490526</v>
+        <v>7.040611442357784</v>
       </c>
       <c r="D2">
-        <v>4.922777254636135</v>
+        <v>5.314657270226939</v>
       </c>
       <c r="F2">
-        <v>22.84158384033515</v>
+        <v>15.93611977504167</v>
       </c>
       <c r="G2">
-        <v>3.626838973828984</v>
+        <v>2.087101657661669</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,13 +442,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.50592536256166</v>
+        <v>11.47139203836095</v>
       </c>
       <c r="N2">
-        <v>17.80671404251862</v>
+        <v>11.85690358980503</v>
       </c>
       <c r="O2">
-        <v>20.5876497060342</v>
+        <v>12.95510574406054</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,19 +456,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.976158137798656</v>
+        <v>12.12308694349518</v>
       </c>
       <c r="C3">
-        <v>5.385868133065467</v>
+        <v>6.743910952547234</v>
       </c>
       <c r="D3">
-        <v>4.838897443180038</v>
+        <v>5.09720173563568</v>
       </c>
       <c r="F3">
-        <v>22.9019181309469</v>
+        <v>15.77353883883887</v>
       </c>
       <c r="G3">
-        <v>3.628319191498725</v>
+        <v>2.090976660106112</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,13 +477,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.296656281057613</v>
+        <v>10.83059756297829</v>
       </c>
       <c r="N3">
-        <v>17.85861684992159</v>
+        <v>12.01469451830771</v>
       </c>
       <c r="O3">
-        <v>20.67349291331158</v>
+        <v>13.0496277861602</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,19 +491,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.78771250488265</v>
+        <v>11.5795055665562</v>
       </c>
       <c r="C4">
-        <v>5.306062920337981</v>
+        <v>6.554586000018626</v>
       </c>
       <c r="D4">
-        <v>4.785988330907564</v>
+        <v>4.958234982781613</v>
       </c>
       <c r="F4">
-        <v>22.94512450720505</v>
+        <v>15.68910249899095</v>
       </c>
       <c r="G4">
-        <v>3.629276656475332</v>
+        <v>2.093433529873083</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.166496745428491</v>
+        <v>10.41663673826014</v>
       </c>
       <c r="N4">
-        <v>17.8921649449647</v>
+        <v>12.11460387389341</v>
       </c>
       <c r="O4">
-        <v>20.73057661869371</v>
+        <v>13.11933069975177</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.71006266017603</v>
+        <v>11.3503768529606</v>
       </c>
       <c r="C5">
-        <v>5.273039829396891</v>
+        <v>6.475706543729228</v>
       </c>
       <c r="D5">
-        <v>4.76408841237421</v>
+        <v>4.900281778889461</v>
       </c>
       <c r="F5">
-        <v>22.96427654796425</v>
+        <v>15.65848787191946</v>
       </c>
       <c r="G5">
-        <v>3.62967908976583</v>
+        <v>2.094454578789422</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.113112369215932</v>
+        <v>10.24284864108113</v>
       </c>
       <c r="N5">
-        <v>17.90625941430286</v>
+        <v>12.15608320550586</v>
       </c>
       <c r="O5">
-        <v>20.75493746427076</v>
+        <v>13.15054308323553</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,19 +561,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.697120939835996</v>
+        <v>11.31186995252604</v>
       </c>
       <c r="C6">
-        <v>5.267526988988356</v>
+        <v>6.462506551572251</v>
       </c>
       <c r="D6">
-        <v>4.76043191159664</v>
+        <v>4.890580283918601</v>
       </c>
       <c r="F6">
-        <v>22.96754992138374</v>
+        <v>15.65363100882641</v>
       </c>
       <c r="G6">
-        <v>3.62974665496266</v>
+        <v>2.094625332088424</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.104229490659726</v>
+        <v>10.21368564145589</v>
       </c>
       <c r="N6">
-        <v>17.90862538920466</v>
+        <v>12.16301719327703</v>
       </c>
       <c r="O6">
-        <v>20.75904888292994</v>
+        <v>13.15589186502469</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,19 +596,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.786668593964984</v>
+        <v>11.57644630517949</v>
       </c>
       <c r="C7">
-        <v>5.305619549577028</v>
+        <v>6.553529100703108</v>
       </c>
       <c r="D7">
-        <v>4.785694333840927</v>
+        <v>4.957458695980022</v>
       </c>
       <c r="F7">
-        <v>22.94537654803796</v>
+        <v>15.688674367829</v>
       </c>
       <c r="G7">
-        <v>3.629282034148324</v>
+        <v>2.0934472192629</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -617,13 +617,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.165778072038512</v>
+        <v>10.41431350925523</v>
       </c>
       <c r="N7">
-        <v>17.89235331244148</v>
+        <v>12.11516017281975</v>
       </c>
       <c r="O7">
-        <v>20.73090071069399</v>
+        <v>13.11974043506119</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,19 +631,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.173975338241547</v>
+        <v>12.67715093205573</v>
       </c>
       <c r="C8">
-        <v>5.469225860716903</v>
+        <v>6.939831717560457</v>
       </c>
       <c r="D8">
-        <v>4.894156036768734</v>
+        <v>5.240835413736716</v>
       </c>
       <c r="F8">
-        <v>22.86110606162387</v>
+        <v>15.87682629909669</v>
       </c>
       <c r="G8">
-        <v>3.627339286746626</v>
+        <v>2.088421861430755</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -652,13 +652,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.434159906572702</v>
+        <v>11.25473496159452</v>
       </c>
       <c r="N8">
-        <v>17.82426214534002</v>
+        <v>11.91068485830406</v>
       </c>
       <c r="O8">
-        <v>20.61633937532591</v>
+        <v>12.98519896136484</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,19 +666,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.897826890339617</v>
+        <v>14.59679650000922</v>
       </c>
       <c r="C9">
-        <v>5.772012871345652</v>
+        <v>7.63808633736435</v>
       </c>
       <c r="D9">
-        <v>5.095077272935579</v>
+        <v>5.751580706128583</v>
       </c>
       <c r="F9">
-        <v>22.74490257261192</v>
+        <v>16.37061253549575</v>
       </c>
       <c r="G9">
-        <v>3.623913566350925</v>
+        <v>2.079166739918285</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -687,13 +687,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.944082530455237</v>
+        <v>12.73815071364319</v>
       </c>
       <c r="N9">
-        <v>17.70401586947312</v>
+        <v>11.53350456812245</v>
       </c>
       <c r="O9">
-        <v>20.42647087089439</v>
+        <v>12.81972489495137</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,19 +701,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.40215545890946</v>
+        <v>15.86321937371351</v>
       </c>
       <c r="C10">
-        <v>5.981934960164851</v>
+        <v>8.112180595969649</v>
       </c>
       <c r="D10">
-        <v>5.234747377261789</v>
+        <v>6.097524627461867</v>
       </c>
       <c r="F10">
-        <v>22.6896328749126</v>
+        <v>16.81227274560261</v>
       </c>
       <c r="G10">
-        <v>3.621628459990907</v>
+        <v>2.072708906092056</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -722,13 +722,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.304830990261683</v>
+        <v>13.72602688911156</v>
       </c>
       <c r="N10">
-        <v>17.62370186199631</v>
+        <v>11.27062748666561</v>
       </c>
       <c r="O10">
-        <v>20.30827221892187</v>
+        <v>12.76626910379332</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,19 +736,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.62459616917833</v>
+        <v>16.40851770783717</v>
       </c>
       <c r="C11">
-        <v>6.074425196451371</v>
+        <v>8.318984674394679</v>
       </c>
       <c r="D11">
-        <v>5.296412021854102</v>
+        <v>6.248244654983663</v>
       </c>
       <c r="F11">
-        <v>22.67105986141523</v>
+        <v>17.03066170054381</v>
       </c>
       <c r="G11">
-        <v>3.620638738034809</v>
+        <v>2.069839840394117</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -757,13 +757,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.465191181101089</v>
+        <v>14.15316332948836</v>
       </c>
       <c r="N11">
-        <v>17.58889506459125</v>
+        <v>11.15408200671029</v>
       </c>
       <c r="O11">
-        <v>20.25914472662654</v>
+        <v>12.75854020853495</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,19 +771,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.70775170678241</v>
+        <v>16.61061560385859</v>
       </c>
       <c r="C12">
-        <v>6.108995338098506</v>
+        <v>8.395994887794977</v>
       </c>
       <c r="D12">
-        <v>5.319482029691986</v>
+        <v>6.304342817244043</v>
       </c>
       <c r="F12">
-        <v>22.66497331486777</v>
+        <v>17.11588453581403</v>
       </c>
       <c r="G12">
-        <v>3.62027107772369</v>
+        <v>2.068762799418947</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -792,13 +792,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.525321537435286</v>
+        <v>14.31170779034571</v>
       </c>
       <c r="N12">
-        <v>17.57596218517839</v>
+        <v>11.11038372204093</v>
       </c>
       <c r="O12">
-        <v>20.24121055875612</v>
+        <v>12.7581485986157</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,19 +806,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.68989170600194</v>
+        <v>16.56728508417715</v>
       </c>
       <c r="C13">
-        <v>6.101570555999145</v>
+        <v>8.37946764021534</v>
       </c>
       <c r="D13">
-        <v>5.314526171958689</v>
+        <v>6.292304766967177</v>
       </c>
       <c r="F13">
-        <v>22.66624203345842</v>
+        <v>17.09741795596452</v>
       </c>
       <c r="G13">
-        <v>3.62034994354544</v>
+        <v>2.06899434842036</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.512398673579812</v>
+        <v>14.27770482484355</v>
       </c>
       <c r="N13">
-        <v>17.57873650902146</v>
+        <v>11.11977560735181</v>
       </c>
       <c r="O13">
-        <v>20.24504320351015</v>
+        <v>12.75811780050027</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,19 +841,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.63145942324439</v>
+        <v>16.42523229293244</v>
       </c>
       <c r="C14">
-        <v>6.077278518539626</v>
+        <v>8.325346580746052</v>
       </c>
       <c r="D14">
-        <v>5.298315703435778</v>
+        <v>6.252879549466582</v>
       </c>
       <c r="F14">
-        <v>22.67054013592787</v>
+        <v>17.03762242663899</v>
       </c>
       <c r="G14">
-        <v>3.620608347773889</v>
+        <v>2.069751045665995</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.470150361393612</v>
+        <v>14.16627105965278</v>
       </c>
       <c r="N14">
-        <v>17.58782610936329</v>
+        <v>11.15047821373794</v>
       </c>
       <c r="O14">
-        <v>20.25765584640749</v>
+        <v>12.75845632363398</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,19 +876,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.59552552890998</v>
+        <v>16.33764960395684</v>
       </c>
       <c r="C15">
-        <v>6.062339214428598</v>
+        <v>8.292025599262491</v>
       </c>
       <c r="D15">
-        <v>5.28834938195084</v>
+        <v>6.228602809112156</v>
       </c>
       <c r="F15">
-        <v>22.67329617884922</v>
+        <v>17.00132475989669</v>
       </c>
       <c r="G15">
-        <v>3.620767554853765</v>
+        <v>2.070215756283608</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.444193040423499</v>
+        <v>14.09759758821264</v>
       </c>
       <c r="N15">
-        <v>17.59342598485856</v>
+        <v>11.16934104627512</v>
       </c>
       <c r="O15">
-        <v>20.26546867869657</v>
+        <v>12.75899828029362</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,19 +911,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.38747143525045</v>
+        <v>15.82696591395124</v>
       </c>
       <c r="C16">
-        <v>5.975828137905811</v>
+        <v>8.098484619623553</v>
       </c>
       <c r="D16">
-        <v>5.230678747785558</v>
+        <v>6.087539095216528</v>
       </c>
       <c r="F16">
-        <v>22.6909790401051</v>
+        <v>16.79835329331232</v>
       </c>
       <c r="G16">
-        <v>3.621694139608154</v>
+        <v>2.072897748830141</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -932,13 +932,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.29427081072388</v>
+        <v>13.69766432397766</v>
       </c>
       <c r="N16">
-        <v>17.62601127589091</v>
+        <v>11.27830496410615</v>
       </c>
       <c r="O16">
-        <v>20.3115763794501</v>
+        <v>12.76712079917859</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,19 +946,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.25799359119706</v>
+        <v>15.50581241215006</v>
       </c>
       <c r="C17">
-        <v>5.921970751400464</v>
+        <v>7.977461817580886</v>
       </c>
       <c r="D17">
-        <v>5.194811549600097</v>
+        <v>5.999282143594506</v>
       </c>
       <c r="F17">
-        <v>22.70351107118528</v>
+        <v>16.67832339237143</v>
       </c>
       <c r="G17">
-        <v>3.62227529673211</v>
+        <v>2.074560325502445</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -967,13 +967,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.201297678992439</v>
+        <v>13.44661435964431</v>
       </c>
       <c r="N17">
-        <v>17.64644338412863</v>
+        <v>11.34592739510349</v>
       </c>
       <c r="O17">
-        <v>20.34105214599798</v>
+        <v>12.77645878068386</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,19 +981,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.18286815609409</v>
+        <v>15.31819177194383</v>
       </c>
       <c r="C18">
-        <v>5.890711810696005</v>
+        <v>7.907019628218262</v>
       </c>
       <c r="D18">
-        <v>5.174006149269069</v>
+        <v>5.947893916903868</v>
       </c>
       <c r="F18">
-        <v>22.71133742768065</v>
+        <v>16.61093025642687</v>
       </c>
       <c r="G18">
-        <v>3.622614250836883</v>
+        <v>2.075523084727774</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1002,13 +1002,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.14747243714527</v>
+        <v>13.30012215803197</v>
       </c>
       <c r="N18">
-        <v>17.65835813180871</v>
+        <v>11.3851081119989</v>
       </c>
       <c r="O18">
-        <v>20.35844261138046</v>
+        <v>12.78338210042853</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,19 +1016,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.15732218309982</v>
+        <v>15.25416726685712</v>
       </c>
       <c r="C19">
-        <v>5.880080402749843</v>
+        <v>7.883026967253954</v>
       </c>
       <c r="D19">
-        <v>5.166932022998429</v>
+        <v>5.930388039790726</v>
       </c>
       <c r="F19">
-        <v>22.71409341593807</v>
+        <v>16.58839412969507</v>
       </c>
       <c r="G19">
-        <v>3.622729821034682</v>
+        <v>2.075850186517975</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.129189877418629</v>
+        <v>13.25016281413184</v>
       </c>
       <c r="N19">
-        <v>17.66242023744176</v>
+        <v>11.39842323827023</v>
       </c>
       <c r="O19">
-        <v>20.36440568467864</v>
+        <v>12.78598828144076</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,19 +1051,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.2718448963473</v>
+        <v>15.54029981485812</v>
       </c>
       <c r="C20">
-        <v>5.927733270601532</v>
+        <v>7.990431339237452</v>
       </c>
       <c r="D20">
-        <v>5.198647929687934</v>
+        <v>6.008742103994424</v>
       </c>
       <c r="F20">
-        <v>22.70211301110319</v>
+        <v>16.69093043371666</v>
       </c>
       <c r="G20">
-        <v>3.622212946624385</v>
+        <v>2.074382673018385</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.211231424769396</v>
+        <v>13.47355591347778</v>
       </c>
       <c r="N20">
-        <v>17.6442515146046</v>
+        <v>11.3386992803761</v>
       </c>
       <c r="O20">
-        <v>20.3378691811394</v>
+        <v>12.7753029896696</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,19 +1086,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.64865220476612</v>
+        <v>16.46707562422607</v>
       </c>
       <c r="C21">
-        <v>6.084426162905912</v>
+        <v>8.341278772495112</v>
       </c>
       <c r="D21">
-        <v>5.303084829713344</v>
+        <v>6.264486324937652</v>
       </c>
       <c r="F21">
-        <v>22.66925197421645</v>
+        <v>17.05511729012604</v>
       </c>
       <c r="G21">
-        <v>3.620532255054286</v>
+        <v>2.069528533676695</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.482576273641019</v>
+        <v>14.19908877097642</v>
       </c>
       <c r="N21">
-        <v>17.58514955760938</v>
+        <v>11.14144832106587</v>
       </c>
       <c r="O21">
-        <v>20.25393302664897</v>
+        <v>12.75828689315188</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,19 +1121,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.88860597723619</v>
+        <v>17.04717902267683</v>
       </c>
       <c r="C22">
-        <v>6.184179455355665</v>
+        <v>8.562980171988915</v>
       </c>
       <c r="D22">
-        <v>5.369697183776168</v>
+        <v>6.425933117553831</v>
       </c>
       <c r="F22">
-        <v>22.65329371657098</v>
+        <v>17.30784340732403</v>
       </c>
       <c r="G22">
-        <v>3.619475346121021</v>
+        <v>2.066410702404234</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.656427540186286</v>
+        <v>14.6546010912747</v>
       </c>
       <c r="N22">
-        <v>17.54796641053065</v>
+        <v>11.01506839170765</v>
       </c>
       <c r="O22">
-        <v>20.20297822647332</v>
+        <v>12.76201213242019</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,19 +1156,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.76113798113192</v>
+        <v>16.73989705168703</v>
       </c>
       <c r="C23">
-        <v>6.131188898236926</v>
+        <v>8.445356683376525</v>
       </c>
       <c r="D23">
-        <v>5.334299002923815</v>
+        <v>6.340292746181808</v>
       </c>
       <c r="F23">
-        <v>22.66130550201726</v>
+        <v>17.17161153971119</v>
       </c>
       <c r="G23">
-        <v>3.620035650046147</v>
+        <v>2.068069906840702</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.563976297849857</v>
+        <v>14.41319270816958</v>
       </c>
       <c r="N23">
-        <v>17.56767996142618</v>
+        <v>11.0822882223914</v>
       </c>
       <c r="O23">
-        <v>20.22981608168759</v>
+        <v>12.75861598232013</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,19 +1191,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.26558485510212</v>
+        <v>15.52471736097668</v>
       </c>
       <c r="C24">
-        <v>5.925128954772214</v>
+        <v>7.984570509289806</v>
       </c>
       <c r="D24">
-        <v>5.196914077175235</v>
+        <v>6.004467273137323</v>
       </c>
       <c r="F24">
-        <v>22.70274313823254</v>
+        <v>16.68522576506075</v>
       </c>
       <c r="G24">
-        <v>3.622241120032189</v>
+        <v>2.074462968112269</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1212,13 +1212,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.206741538150821</v>
+        <v>13.46138236534436</v>
       </c>
       <c r="N24">
-        <v>17.64524193526449</v>
+        <v>11.34196616498551</v>
       </c>
       <c r="O24">
-        <v>20.33930681525108</v>
+        <v>12.77582069131204</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,19 +1226,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.706454375895301</v>
+        <v>14.10289264576467</v>
       </c>
       <c r="C25">
-        <v>5.692198645300256</v>
+        <v>7.455855272507818</v>
       </c>
       <c r="D25">
-        <v>5.0420651878804</v>
+        <v>5.618439806463806</v>
       </c>
       <c r="F25">
-        <v>22.77106471649386</v>
+        <v>16.22333063888487</v>
       </c>
       <c r="G25">
-        <v>3.624799446122124</v>
+        <v>2.081608678876813</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.80830885621827</v>
+        <v>12.35468411577305</v>
       </c>
       <c r="N25">
-        <v>17.73513071227949</v>
+        <v>11.63302391797029</v>
       </c>
       <c r="O25">
-        <v>20.47410180718193</v>
+        <v>12.85312891370496</v>
       </c>
     </row>
   </sheetData>
